--- a/etc/file/germany_stock_list.xlsx
+++ b/etc/file/germany_stock_list.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="16416"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>Symbol</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -263,15 +263,128 @@
   </si>
   <si>
     <t>Sartorius AG</t>
+  </si>
+  <si>
+    <t>NameEn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아디다스</t>
+  </si>
+  <si>
+    <t>에어버스</t>
+  </si>
+  <si>
+    <t>알리안츠</t>
+  </si>
+  <si>
+    <t>바스프</t>
+  </si>
+  <si>
+    <t>바이엘</t>
+  </si>
+  <si>
+    <t>바이어스도르프</t>
+  </si>
+  <si>
+    <t>브렌탁</t>
+  </si>
+  <si>
+    <t>코메르츠방크</t>
+  </si>
+  <si>
+    <t>콘티넨탈</t>
+  </si>
+  <si>
+    <t>코베스트로</t>
+  </si>
+  <si>
+    <t>딜리버리 히어로</t>
+  </si>
+  <si>
+    <t>도이체 포스트</t>
+  </si>
+  <si>
+    <t>도이체 텔레콤</t>
+  </si>
+  <si>
+    <t>도이체 보넨</t>
+  </si>
+  <si>
+    <t>지멘스 에너지</t>
+  </si>
+  <si>
+    <t>E.ON</t>
+  </si>
+  <si>
+    <t>프레제니우스 메디컬 케어</t>
+  </si>
+  <si>
+    <t>프레제니우스</t>
+  </si>
+  <si>
+    <t>하이델베르크시멘트</t>
+  </si>
+  <si>
+    <t>헹켈</t>
+  </si>
+  <si>
+    <t>인피니언 테크놀로지</t>
+  </si>
+  <si>
+    <t>린데</t>
+  </si>
+  <si>
+    <t>머크</t>
+  </si>
+  <si>
+    <t>MTU 에어로 엔진스</t>
+  </si>
+  <si>
+    <t>뮌헨 재보험</t>
+  </si>
+  <si>
+    <t>푸마</t>
+  </si>
+  <si>
+    <t>키아겐</t>
+  </si>
+  <si>
+    <t>지멘스</t>
+  </si>
+  <si>
+    <t>심라이즈</t>
+  </si>
+  <si>
+    <t>티센크루프</t>
+  </si>
+  <si>
+    <t>보노비아</t>
+  </si>
+  <si>
+    <t>폭스바겐</t>
+  </si>
+  <si>
+    <t>잘란도</t>
+  </si>
+  <si>
+    <t>포르쉐</t>
+  </si>
+  <si>
+    <t>헬로프레시</t>
+  </si>
+  <si>
+    <t>사르토리우스</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -279,20 +392,23 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,61 +510,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -574,7 +730,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,7 +739,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -592,7 +748,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -666,7 +822,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -674,7 +830,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -693,7 +849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +1009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +1035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +1087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,9 +1100,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -961,7 +1123,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -969,7 +1131,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -988,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,9 +1397,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1251,7 +1419,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1270,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,631 +1689,764 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="B2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="B11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="B15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="B22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="B25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="B26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="B27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="B28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="B29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="B30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="B31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="B32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="B33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="B34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="B35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="B36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="B37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C37" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="B38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="B39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C39" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="B40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E40" s="6"/>
+      <c r="D40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
